--- a/Excel_results.xlsx
+++ b/Excel_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruna\OneDrive - Universidade do Minho\Microbialdataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cfa4f918d2aa6db/Microbialdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41AEF313-DB3F-4BD0-A185-07792A848184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{EF4F3910-A26C-4E12-BD2C-7FE0C3C2C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E874F4D-8513-4199-B066-CC235BA6DBB1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580295D1-2B50-4C85-AAD9-D3915E1293C3}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>Model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Accuracy</t>
   </si>
@@ -147,13 +144,70 @@
   </si>
   <si>
     <t>Lower_Resolution</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>Model_CNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +222,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,17 +288,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,170 +631,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85394877-F1B8-4DC1-8907-3AEABEAB404E}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="R1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="R1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+    <row r="5" spans="1:22">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
+    <row r="6" spans="1:22">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B7">
         <v>101</v>
@@ -760,14 +940,48 @@
       <c r="J7">
         <v>296</v>
       </c>
+      <c r="L7">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>192</v>
+      </c>
+      <c r="N7">
+        <v>438</v>
+      </c>
+      <c r="O7">
+        <v>311</v>
+      </c>
+      <c r="P7">
+        <v>138</v>
+      </c>
+      <c r="R7">
+        <v>468</v>
+      </c>
+      <c r="S7">
+        <v>319</v>
+      </c>
+      <c r="T7">
+        <v>360</v>
+      </c>
+      <c r="U7">
+        <v>365</v>
+      </c>
+      <c r="V7">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="G16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_results.xlsx
+++ b/Excel_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cfa4f918d2aa6db/Microbialdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{EF4F3910-A26C-4E12-BD2C-7FE0C3C2C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E874F4D-8513-4199-B066-CC235BA6DBB1}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{EF4F3910-A26C-4E12-BD2C-7FE0C3C2C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A191089-1268-4491-A085-436CA695A0E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580295D1-2B50-4C85-AAD9-D3915E1293C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
   <si>
     <t>Accuracy</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Dark</t>
   </si>
   <si>
-    <t>0.8878504633903503</t>
-  </si>
-  <si>
     <t>Class 1</t>
   </si>
   <si>
@@ -200,7 +197,103 @@
     <t>0.49</t>
   </si>
   <si>
-    <t>Model_CNN</t>
+    <t>ResNet</t>
+  </si>
+  <si>
+    <t>0.4492</t>
+  </si>
+  <si>
+    <t>0.7795</t>
+  </si>
+  <si>
+    <t>0.9539</t>
+  </si>
+  <si>
+    <t>0.8785</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.5298</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.8131</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.5192</t>
+  </si>
+  <si>
+    <t>0.7984</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.70</t>
   </si>
 </sst>
 </file>
@@ -279,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -293,10 +386,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +412,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,108 +735,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85394877-F1B8-4DC1-8907-3AEABEAB404E}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="L1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="R3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="U3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="V3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -740,58 +867,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
       <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
         <v>36</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>38</v>
       </c>
-      <c r="U4" t="s">
-        <v>39</v>
-      </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -799,58 +926,58 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
         <v>46</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" t="s">
         <v>47</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -858,58 +985,58 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>49</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>50</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>51</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>52</v>
-      </c>
-      <c r="V6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -971,15 +1098,384 @@
         <v>418</v>
       </c>
     </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="R9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="R10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>179</v>
+      </c>
+      <c r="G15">
+        <v>368</v>
+      </c>
+      <c r="H15">
+        <v>432</v>
+      </c>
+      <c r="I15">
+        <v>471</v>
+      </c>
+      <c r="J15">
+        <v>296</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>192</v>
+      </c>
+      <c r="N15">
+        <v>438</v>
+      </c>
+      <c r="O15">
+        <v>311</v>
+      </c>
+      <c r="P15">
+        <v>138</v>
+      </c>
+      <c r="R15">
+        <v>468</v>
+      </c>
+      <c r="S15">
+        <v>319</v>
+      </c>
+      <c r="T15">
+        <v>360</v>
+      </c>
+      <c r="U15">
+        <v>365</v>
+      </c>
+      <c r="V15">
+        <v>418</v>
+      </c>
+    </row>
     <row r="16" spans="1:22">
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="20" spans="16:16">
+      <c r="P20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="16">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="R1:V1"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel_results.xlsx
+++ b/Excel_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cfa4f918d2aa6db/Microbialdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{EF4F3910-A26C-4E12-BD2C-7FE0C3C2C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A191089-1268-4491-A085-436CA695A0E3}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{EF4F3910-A26C-4E12-BD2C-7FE0C3C2C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25ACAA2-C276-49B5-AFD2-9901308AE3B3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580295D1-2B50-4C85-AAD9-D3915E1293C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
   <si>
     <t>Accuracy</t>
   </si>
@@ -294,6 +294,63 @@
   </si>
   <si>
     <t>0.70</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.6140</t>
+  </si>
+  <si>
+    <t>E.coli</t>
+  </si>
+  <si>
+    <t>P.aeruginosa</t>
+  </si>
+  <si>
+    <t>S.aureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50 </t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.8300</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.8130</t>
+  </si>
+  <si>
+    <t>0.77</t>
   </si>
 </sst>
 </file>
@@ -372,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -387,15 +444,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85394877-F1B8-4DC1-8907-3AEABEAB404E}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -747,74 +807,74 @@
       <c r="A1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="R1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="R2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -1099,76 +1159,76 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="8" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="R9" s="8" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="R9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="R10" s="10" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="R10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
@@ -1455,16 +1515,370 @@
     <row r="16" spans="1:22">
       <c r="G16" s="7"/>
     </row>
-    <row r="20" spans="16:16">
-      <c r="P20" s="7"/>
+    <row r="17" spans="1:22">
+      <c r="A17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="L17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="R17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="R18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="B19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" t="s">
+        <v>87</v>
+      </c>
+      <c r="S20" t="s">
+        <v>67</v>
+      </c>
+      <c r="T20" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" t="s">
+        <v>99</v>
+      </c>
+      <c r="V20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+      <c r="R22" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" t="s">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>93</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>368</v>
+      </c>
+      <c r="H23">
+        <v>432</v>
+      </c>
+      <c r="I23">
+        <v>471</v>
+      </c>
+      <c r="J23">
+        <v>296</v>
+      </c>
+      <c r="L23">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>192</v>
+      </c>
+      <c r="N23">
+        <v>438</v>
+      </c>
+      <c r="O23">
+        <v>311</v>
+      </c>
+      <c r="P23">
+        <v>138</v>
+      </c>
+      <c r="R23">
+        <v>468</v>
+      </c>
+      <c r="S23">
+        <v>319</v>
+      </c>
+      <c r="T23">
+        <v>360</v>
+      </c>
+      <c r="U23">
+        <v>365</v>
+      </c>
+      <c r="V23">
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="24">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:V18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
@@ -1476,6 +1890,11 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel_results.xlsx
+++ b/Excel_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cfa4f918d2aa6db/Microbialdataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{EF4F3910-A26C-4E12-BD2C-7FE0C3C2C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B25ACAA2-C276-49B5-AFD2-9901308AE3B3}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C374B42E-F883-4E68-936B-6997A15B880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C8628C-F910-43FF-AACA-D1555D0CAAA6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{580295D1-2B50-4C85-AAD9-D3915E1293C3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>Accuracy</t>
   </si>
@@ -59,51 +59,21 @@
     <t>Dark</t>
   </si>
   <si>
-    <t>Class 1</t>
-  </si>
-  <si>
-    <t>Class 2</t>
-  </si>
-  <si>
-    <t>Class 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96 </t>
-  </si>
-  <si>
     <t>0.83</t>
   </si>
   <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>0.96</t>
   </si>
   <si>
     <t>0.99</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>0.90</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>Higher_Resolution</t>
   </si>
   <si>
-    <t>Class 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 2 </t>
-  </si>
-  <si>
-    <t>Class 4</t>
-  </si>
-  <si>
     <t>0.63</t>
   </si>
   <si>
@@ -128,9 +98,6 @@
     <t>0.79</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
     <t>0.82</t>
   </si>
   <si>
@@ -155,202 +122,217 @@
     <t>0.36</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <t>0.93</t>
   </si>
   <si>
     <t>0.94</t>
   </si>
   <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>ResNet</t>
+  </si>
+  <si>
+    <t>0.4492</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.5192</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.6140</t>
+  </si>
+  <si>
+    <t>E.coli</t>
+  </si>
+  <si>
+    <t>P.aeruginosa</t>
+  </si>
+  <si>
+    <t>S.aureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50 </t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.8300</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.8130</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>B.subtilis</t>
+  </si>
+  <si>
+    <t>C.albicans</t>
+  </si>
+  <si>
+    <t>0.8037</t>
+  </si>
+  <si>
+    <t>0.8645</t>
+  </si>
+  <si>
+    <t>0.5398</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.9312</t>
+  </si>
+  <si>
+    <t>0.7694</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>P. aeruginosa</t>
+  </si>
+  <si>
+    <t>0.8785</t>
+  </si>
+  <si>
     <t>0.98</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>ResNet</t>
-  </si>
-  <si>
-    <t>0.4492</t>
-  </si>
-  <si>
-    <t>0.7795</t>
-  </si>
-  <si>
-    <t>0.9539</t>
-  </si>
-  <si>
-    <t>0.8785</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.5298</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.8131</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.5192</t>
-  </si>
-  <si>
-    <t>0.7984</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>VGG16</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.6140</t>
-  </si>
-  <si>
-    <t>E.coli</t>
-  </si>
-  <si>
-    <t>P.aeruginosa</t>
-  </si>
-  <si>
-    <t>S.aureus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50 </t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.8300</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.8130</t>
-  </si>
-  <si>
-    <t>0.77</t>
+    <t>0.7892</t>
   </si>
 </sst>
 </file>
@@ -371,15 +353,16 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,12 +374,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -412,7 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,34 +412,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,128 +780,128 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="L1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="L2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="R2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -927,58 +909,58 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="S4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -986,58 +968,58 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1045,58 +1027,58 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
         <v>16</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1159,121 +1141,121 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="L9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="L9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="R9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="L10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="R10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="R10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>21</v>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1281,58 +1263,58 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" t="s">
         <v>28</v>
-      </c>
-      <c r="O12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1340,58 +1322,58 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S13" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1399,58 +1381,58 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="V14" t="s">
         <v>59</v>
-      </c>
-      <c r="J14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s">
-        <v>49</v>
-      </c>
-      <c r="U14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1513,124 +1495,124 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="L17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="R17" s="11" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="R17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="L18" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="R18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="R18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="B19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>21</v>
+      <c r="B19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1638,58 +1620,58 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="S20" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U20" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1697,58 +1679,58 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" t="s">
         <v>28</v>
       </c>
-      <c r="R21" t="s">
-        <v>85</v>
-      </c>
-      <c r="S21" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" t="s">
-        <v>40</v>
-      </c>
       <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" t="s">
         <v>43</v>
-      </c>
-      <c r="V21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1756,58 +1738,58 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>98</v>
-      </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="N22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="R22" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1871,14 +1853,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
@@ -1890,11 +1869,14 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:V2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
